--- a/biology/Médecine/Dysarthrie/Dysarthrie.xlsx
+++ b/biology/Médecine/Dysarthrie/Dysarthrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dysarthrie (du grec dys-, préfixe qui exprime l'idée de mal ou de manque + grec -arthron, jointure, articulation, articulation de la voix)[1] est un trouble de l'articulation de la parole, d'origine centrale et périphérique (nerfs crâniens). C'est le système nerveux qui est lésé.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dysarthrie (du grec dys-, préfixe qui exprime l'idée de mal ou de manque + grec -arthron, jointure, articulation, articulation de la voix) est un trouble de l'articulation de la parole, d'origine centrale et périphérique (nerfs crâniens). C'est le système nerveux qui est lésé.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Rappels neurologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles qui commandent les mouvements nécessaires au langage oral sont innervés par les nerfs suivants : nerf facial, nerf vague, hypoglosse, accessoire et glosso-pharyngien. Ils ont tous, mis à part le nerf facial, une attache au niveau du bulbe rachidien. Les commandes nerveuses viennent de différentes zones du cortex via deux sortes de neurones jusqu'aux muscles, en passant par le bulbe. Une lésion d'une de ces deux sortes de neurones peut conduire à une dysarthrie, que l'atteinte soit paralytique ou un dysfonctionnement de la motilité.
 </t>
@@ -542,7 +556,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les sujets atteints de dysarthrie présentent les symptômes suivants :
 difficultés d'articulation ;
@@ -578,7 +594,9 @@
           <t>Causes de la pathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Comme évoqué plus haut, les causes sont des lésions nerveuses du système nerveux central.
 Il s'agit ici d'une atteinte neurologique touchant l'exécution motrice, à la différence de la dyspraxie qui touche la programmation motrice.
@@ -587,8 +605,8 @@
 la paralysie générale. Cette complication neurologique tardive de la syphilis aura tendance à engendrer une dysarthrie progressive. Les premiers stades révèlent des achoppements, et omissions et autres petits troubles, pour ensuite évoluer vers de grosses difficultés d'articulation, des mots brouillés ;
 la sclérose en plaques. Les symptômes particuliers sont le ralentissement de la parole, une monotonie de la voix, le timbre perdant en richesse.
 Toutes ces pathologies sont des maladies qui touchent principalement l'adulte.
-le traitement par carbonate de lithium[2] ;
-les perfusions répétées de fluorouracile[3], oxaliplatine, dans des cas exceptionnels[4].</t>
+le traitement par carbonate de lithium ;
+les perfusions répétées de fluorouracile, oxaliplatine, dans des cas exceptionnels.</t>
         </is>
       </c>
     </row>
@@ -616,7 +634,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Selon Darley et collaborateurs (1975), il existe différents types de dysarthries classées selon la lésion d'origine :
 dysarthrie flasque ou bulbaire, due à une atteinte du motoneurone périphérique ;
